--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbc-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbc-Acvr2b.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.147652333333333</v>
+        <v>1.955270666666667</v>
       </c>
       <c r="N2">
-        <v>3.442957</v>
+        <v>5.865812</v>
       </c>
       <c r="O2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="P2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="Q2">
-        <v>0.0899694395701111</v>
+        <v>0.1532821403995555</v>
       </c>
       <c r="R2">
-        <v>0.8097249561309999</v>
+        <v>1.379539263596</v>
       </c>
       <c r="S2">
-        <v>0.4117684485751235</v>
+        <v>0.4478934208563147</v>
       </c>
       <c r="T2">
-        <v>0.4117684485751233</v>
+        <v>0.4478934208563147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="P3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
       <c r="Q3">
         <v>0.02108292777211111</v>
@@ -638,10 +638,10 @@
         <v>0.189746349949</v>
       </c>
       <c r="S3">
-        <v>0.09649148090311768</v>
+        <v>0.06160472848893509</v>
       </c>
       <c r="T3">
-        <v>0.09649148090311765</v>
+        <v>0.06160472848893508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.377781</v>
+        <v>1.050406333333333</v>
       </c>
       <c r="N4">
-        <v>1.133343</v>
+        <v>3.151219</v>
       </c>
       <c r="O4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="P4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="Q4">
-        <v>0.029615889641</v>
+        <v>0.08234590423077777</v>
       </c>
       <c r="R4">
-        <v>0.266543006769</v>
+        <v>0.741113138077</v>
       </c>
       <c r="S4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
       <c r="T4">
-        <v>0.1355447915305001</v>
+        <v>0.2406163473663007</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5855753333333333</v>
+        <v>0.5333156666666666</v>
       </c>
       <c r="N5">
-        <v>1.756726</v>
+        <v>1.599947</v>
       </c>
       <c r="O5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="P5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="Q5">
-        <v>0.04590578787311111</v>
+        <v>0.04180892614455555</v>
       </c>
       <c r="R5">
-        <v>0.413152090858</v>
+        <v>0.376280335301</v>
       </c>
       <c r="S5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
       <c r="T5">
-        <v>0.2100997310136555</v>
+        <v>0.1221665022709214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4071873333333333</v>
+        <v>0.5575549999999999</v>
       </c>
       <c r="N6">
-        <v>1.221562</v>
+        <v>1.672665</v>
       </c>
       <c r="O6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="P6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="Q6">
-        <v>0.03192117953844444</v>
+        <v>0.04370915252166666</v>
       </c>
       <c r="R6">
-        <v>0.287290615846</v>
+        <v>0.393382372695</v>
       </c>
       <c r="S6">
-        <v>0.1460955479776033</v>
+        <v>0.1277190010175279</v>
       </c>
       <c r="T6">
-        <v>0.1460955479776032</v>
+        <v>0.1277190010175279</v>
       </c>
     </row>
   </sheetData>
